--- a/public/uploads/retail1klines.xlsx
+++ b/public/uploads/retail1klines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/recon/Documents/studies/year3/Semester-B/4-DATA-Big data/1.1-project/bigData-proj/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A1FB99-9BA1-4D4B-BCF9-620DE48BFEB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C48262-E51B-444E-A974-E67882A0CBF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2840" windowWidth="27240" windowHeight="16440" xr2:uid="{390051F1-3CBF-A34D-B55A-5248DC81E5BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="810">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -2020,6 +2020,447 @@
   </si>
   <si>
     <t xml:space="preserve">PINK PAISLEY SQUARE TISSUE BOX </t>
+  </si>
+  <si>
+    <t>3 TRADITIONAl BISCUIT CUTTERS  SET</t>
+  </si>
+  <si>
+    <t>C536625</t>
+  </si>
+  <si>
+    <t>YELLOW GIANT GARDEN THERMOMETER</t>
+  </si>
+  <si>
+    <t>CAKESTAND, 3 TIER, LOVEHEART</t>
+  </si>
+  <si>
+    <t>GLASS BELL JAR SMALL</t>
+  </si>
+  <si>
+    <t>GLASS BELL JAR LARGE</t>
+  </si>
+  <si>
+    <t>GREEN REGENCY TEACUP AND SAUCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSES REGENCY TEACUP AND SAUCER </t>
+  </si>
+  <si>
+    <t>WATERING CAN GARDEN MARKER</t>
+  </si>
+  <si>
+    <t>KINGS CHOICE MUG</t>
+  </si>
+  <si>
+    <t>FRIDGE MAGNETS LA VIE EN ROSE</t>
+  </si>
+  <si>
+    <t>RED RETROSPOT CAKE STAND</t>
+  </si>
+  <si>
+    <t>RED RETROSPOT ROUND CAKE TINS</t>
+  </si>
+  <si>
+    <t>79066K</t>
+  </si>
+  <si>
+    <t>RETRO MOD TRAY</t>
+  </si>
+  <si>
+    <t>COFFEE MUG CAT + BIRD DESIGN</t>
+  </si>
+  <si>
+    <t>PIN CUSHION BABUSHKA PINK</t>
+  </si>
+  <si>
+    <t>BROCANTE SHELF WITH HOOKS</t>
+  </si>
+  <si>
+    <t>GREEN POLKADOT BOWL</t>
+  </si>
+  <si>
+    <t>RED RETROSPOT BOWL</t>
+  </si>
+  <si>
+    <t>AREA PATROLLED METAL SIGN</t>
+  </si>
+  <si>
+    <t>PLEASE ONE PERSON METAL SIGN</t>
+  </si>
+  <si>
+    <t>PACK OF 12 SKULL TISSUES</t>
+  </si>
+  <si>
+    <t>PICTURE FRAME WOOD TRIPLE PORTRAIT</t>
+  </si>
+  <si>
+    <t>SKULLS  STICKERS</t>
+  </si>
+  <si>
+    <t>RED RETROSPOT TISSUE BOX</t>
+  </si>
+  <si>
+    <t>RED GINGHAM ROSE JEWELLERY BOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET3 BOOK BOX GREEN GINGHAM FLOWER </t>
+  </si>
+  <si>
+    <t>HOME SWEET HOME MUG</t>
+  </si>
+  <si>
+    <t>STAR DECORATION RUSTIC</t>
+  </si>
+  <si>
+    <t>WHITE CHRISTMAS STAR DECORATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEART DECORATION RUSTIC HANGING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISTMAS PUDDING TRINKET POT </t>
+  </si>
+  <si>
+    <t>PORCELAIN T-LIGHT HOLDERS ASSORTED</t>
+  </si>
+  <si>
+    <t>SWEETHEART CERAMIC TRINKET BOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOC TRUFFLE GOLD TRINKET POT </t>
+  </si>
+  <si>
+    <t>JUMBO STORAGE BAG SKULLS</t>
+  </si>
+  <si>
+    <t>JUMBO BAG SCANDINAVIAN PAISLEY</t>
+  </si>
+  <si>
+    <t>C536850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOORMAT MERRY CHRISTMAS RED </t>
+  </si>
+  <si>
+    <t>CARDHOLDER GINGHAM CHRISTMAS TREE</t>
+  </si>
+  <si>
+    <t>RED RETROSPOT CHILDRENS UMBRELLA</t>
+  </si>
+  <si>
+    <t>WASH BAG VINTAGE ROSE PAISLEY</t>
+  </si>
+  <si>
+    <t>CABIN BAG VINTAGE PAISLEY</t>
+  </si>
+  <si>
+    <t>SET/3 RED GINGHAM ROSE STORAGE BOX</t>
+  </si>
+  <si>
+    <t>CABIN BAG VINTAGE RETROSPOT</t>
+  </si>
+  <si>
+    <t>MINI JIGSAW DOLLY GIRL</t>
+  </si>
+  <si>
+    <t>BLUE POLKADOT WRAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED RETROSPOT WRAP </t>
+  </si>
+  <si>
+    <t>RED RETROSPOT SHOPPER BAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECIPE BOX RETROSPOT </t>
+  </si>
+  <si>
+    <t>CHILDRENS APRON APPLES DESIGN</t>
+  </si>
+  <si>
+    <t>PEG BAG APPLES DESIGN</t>
+  </si>
+  <si>
+    <t>COFFEE MUG APPLES DESIGN</t>
+  </si>
+  <si>
+    <t>COFFEE MUG PEARS  DESIGN</t>
+  </si>
+  <si>
+    <t>SET OF 6 T-LIGHTS EASTER CHICKS</t>
+  </si>
+  <si>
+    <t>CAST IRON HOOK GARDEN FORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVE HEART NAPKIN BOX </t>
+  </si>
+  <si>
+    <t>CERAMIC BOWL WITH LOVE HEART DESIGN</t>
+  </si>
+  <si>
+    <t>LARGE CAKE STAND HANGING HEARTS</t>
+  </si>
+  <si>
+    <t>LOVE HEART POCKET WARMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARDEN METAL SIGN </t>
+  </si>
+  <si>
+    <t>RED KITCHEN SCALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAD BIN DINER STYLE RED </t>
+  </si>
+  <si>
+    <t>IVORY KITCHEN SCALES</t>
+  </si>
+  <si>
+    <t>PHOTO FRAME 3 CLASSIC HANGING</t>
+  </si>
+  <si>
+    <t>PACK OF 20 NAPKINS PANTRY DESIGN</t>
+  </si>
+  <si>
+    <t>3 HOOK PHOTO SHELF ANTIQUE WHITE</t>
+  </si>
+  <si>
+    <t>HANGING HEART JAR T-LIGHT HOLDER</t>
+  </si>
+  <si>
+    <t>SWEETHEART CAKESTAND 3 TIER</t>
+  </si>
+  <si>
+    <t>BREAD BIN DINER STYLE IVORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET OF 3 CAKE TINS PANTRY DESIGN </t>
+  </si>
+  <si>
+    <t>ANTIQUE SILVER TEA GLASS ETCHED</t>
+  </si>
+  <si>
+    <t>SET OF 4 DIAMOND NAPKIN RINGS</t>
+  </si>
+  <si>
+    <t>47504K</t>
+  </si>
+  <si>
+    <t>ENGLISH ROSE GARDEN SECATEURS</t>
+  </si>
+  <si>
+    <t>MINI WOODEN HAPPY BIRTHDAY GARLAND</t>
+  </si>
+  <si>
+    <t>CAKE PLATE LOVEBIRD WHITE</t>
+  </si>
+  <si>
+    <t>84926E</t>
+  </si>
+  <si>
+    <t>FLOWERS TILE COASTER</t>
+  </si>
+  <si>
+    <t>SET/12 FUNKY FELT FLOWER PEG IN BAG</t>
+  </si>
+  <si>
+    <t>LARGE CAKE TOWEL CHOCOLATE SPOTS</t>
+  </si>
+  <si>
+    <t>LARGE CAKE TOWEL PINK SPOTS</t>
+  </si>
+  <si>
+    <t>84509G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET OF 4 FAIRY CAKE PLACEMATS </t>
+  </si>
+  <si>
+    <t>85035B</t>
+  </si>
+  <si>
+    <t>CHOCOLATE 3 WICK MORRIS BOX CANDLE</t>
+  </si>
+  <si>
+    <t>85035C</t>
+  </si>
+  <si>
+    <t>ROSE 3 WICK MORRIS BOX CANDLE</t>
+  </si>
+  <si>
+    <t>DANISH ROSE ROUND SEWING BOX</t>
+  </si>
+  <si>
+    <t>DANISH ROSE DELUXE COASTER</t>
+  </si>
+  <si>
+    <t>I CAN ONLY PLEASE ONE PERSON MUG</t>
+  </si>
+  <si>
+    <t>GINGHAM BABUSHKA DOORSTOP</t>
+  </si>
+  <si>
+    <t>DANISH ROSE TRINKET TRAYS</t>
+  </si>
+  <si>
+    <t>SILVER ROCOCO CANDLE STICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANGING HEART MIRROR DECORATION </t>
+  </si>
+  <si>
+    <t>WORLD WAR 2 GLIDERS ASSTD DESIGNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK OF 12 SUKI TISSUES </t>
+  </si>
+  <si>
+    <t>BLUE FELT EASTER EGG BASKET</t>
+  </si>
+  <si>
+    <t>85206A</t>
+  </si>
+  <si>
+    <t>CREAM FELT EASTER EGG BASKET</t>
+  </si>
+  <si>
+    <t>BOX/12 CHICK &amp; EGG IN BASKET</t>
+  </si>
+  <si>
+    <t>S/12 MINI RABBIT EASTER</t>
+  </si>
+  <si>
+    <t>85194S</t>
+  </si>
+  <si>
+    <t>HANGING SPRING FLOWER EGG SMALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREAM SLICE FLANNEL PINK SPOT </t>
+  </si>
+  <si>
+    <t>MILK PAN PINK POLKADOT</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>DOTCOM POSTAGE</t>
+  </si>
+  <si>
+    <t>C540117</t>
+  </si>
+  <si>
+    <t>AMAZONFEE</t>
+  </si>
+  <si>
+    <t>AMAZON FEE</t>
+  </si>
+  <si>
+    <t>C540118</t>
+  </si>
+  <si>
+    <t>ROUND CAKE TIN VINTAGE GREEN</t>
+  </si>
+  <si>
+    <t>RED STRIPE CERAMIC DRAWER KNOB</t>
+  </si>
+  <si>
+    <t>BLUE STRIPE CERAMIC DRAWER KNOB</t>
+  </si>
+  <si>
+    <t>BLUE SPOT CERAMIC DRAWER KNOB</t>
+  </si>
+  <si>
+    <t>RED SPOT CERAMIC DRAWER KNOB</t>
+  </si>
+  <si>
+    <t>85199L</t>
+  </si>
+  <si>
+    <t>LARGE HANGING IVORY &amp; RED WOOD BIRD</t>
+  </si>
+  <si>
+    <t>HOOK, 1 HANGER ,MAGIC GARDEN</t>
+  </si>
+  <si>
+    <t>VINTAGE PINK DECORATIVE PARASOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME GARLAND PAINTED ZINC </t>
+  </si>
+  <si>
+    <t>85170D</t>
+  </si>
+  <si>
+    <t>SET/6 PINK BIRD T-LIGHT CANDLES</t>
+  </si>
+  <si>
+    <t>85170C</t>
+  </si>
+  <si>
+    <t>SET/6 EAU DE NIL BIRD T-LIGHTS</t>
+  </si>
+  <si>
+    <t>ENCHANTED BIRD COATHANGER 5 HOOK</t>
+  </si>
+  <si>
+    <t>MR ROBOT SOFT TOY</t>
+  </si>
+  <si>
+    <t>MRS ROBOT SOFT TOY</t>
+  </si>
+  <si>
+    <t>LONDON BUS COFFEE MUG</t>
+  </si>
+  <si>
+    <t>QUEENS GUARD COFFEE MUG</t>
+  </si>
+  <si>
+    <t>TEA COSY BLUE STRIPE</t>
+  </si>
+  <si>
+    <t>TEA COSY RED  STRIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV DINNER TRAY AIR HOSTESS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNETS PACK OF 4 VINTAGE LABELS </t>
+  </si>
+  <si>
+    <t>DOORSTOP RACING CAR DESIGN</t>
+  </si>
+  <si>
+    <t>PENS ASSORTED SPACEBALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET OF 4 NAPKIN CHARMS CROWNS </t>
+  </si>
+  <si>
+    <t>CERAMIC LOVE HEART MONEY BANK</t>
+  </si>
+  <si>
+    <t>DANISH ROSE DECORATIVE PLATE</t>
+  </si>
+  <si>
+    <t>DANISH ROSE PHOTO FRAME</t>
+  </si>
+  <si>
+    <t>DANISH ROSE FOLDING CHAIR</t>
+  </si>
+  <si>
+    <t>ASSTD DESIGN 3D PAPER STICKERS</t>
+  </si>
+  <si>
+    <t>ASS DES PHONE SPONGE CRAFT STICKER</t>
+  </si>
+  <si>
+    <t>84926D</t>
+  </si>
+  <si>
+    <t>LA PALMIERA TILE COASTER</t>
   </si>
 </sst>
 </file>
@@ -2399,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878E5EFE-CAF3-4E4A-A7EC-16870EB2A0F2}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A991" sqref="A991:H1000"/>
+    <sheetView tabSelected="1" topLeftCell="A1118" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D1134" sqref="D1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28147,64 +28588,8120 @@
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A991" s="5"/>
-      <c r="B991" s="6"/>
-      <c r="E991" s="7"/>
-      <c r="G991" s="8"/>
+      <c r="A991" s="5">
+        <v>536624</v>
+      </c>
+      <c r="B991" s="6">
+        <v>22549</v>
+      </c>
+      <c r="C991" t="s">
+        <v>259</v>
+      </c>
+      <c r="D991">
+        <v>12</v>
+      </c>
+      <c r="E991" s="7">
+        <v>40514.447916666664</v>
+      </c>
+      <c r="F991">
+        <v>1.45</v>
+      </c>
+      <c r="G991" s="8">
+        <v>13418</v>
+      </c>
+      <c r="H991" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A992" s="5"/>
-      <c r="B992" s="6"/>
-      <c r="E992" s="7"/>
-      <c r="G992" s="8"/>
-    </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A993" s="5"/>
-      <c r="B993" s="6"/>
-      <c r="E993" s="7"/>
-      <c r="G993" s="8"/>
-    </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A994" s="5"/>
-      <c r="B994" s="6"/>
-      <c r="E994" s="7"/>
-      <c r="G994" s="8"/>
-    </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A995" s="5"/>
-      <c r="B995" s="6"/>
-      <c r="E995" s="7"/>
-      <c r="G995" s="8"/>
-    </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A996" s="5"/>
-      <c r="B996" s="6"/>
-      <c r="E996" s="7"/>
-      <c r="G996" s="8"/>
-    </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A997" s="5"/>
-      <c r="B997" s="6"/>
-      <c r="E997" s="7"/>
-      <c r="G997" s="8"/>
-    </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A998" s="5"/>
-      <c r="B998" s="6"/>
-      <c r="E998" s="7"/>
-      <c r="G998" s="8"/>
-    </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A999" s="5"/>
-      <c r="B999" s="6"/>
-      <c r="E999" s="7"/>
-      <c r="G999" s="8"/>
-    </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="6"/>
-      <c r="E1000" s="7"/>
-      <c r="G1000" s="8"/>
+      <c r="A992" s="5">
+        <v>536626</v>
+      </c>
+      <c r="B992" s="6">
+        <v>22965</v>
+      </c>
+      <c r="C992" t="s">
+        <v>663</v>
+      </c>
+      <c r="D992">
+        <v>6</v>
+      </c>
+      <c r="E992" s="7">
+        <v>40514.448611111111</v>
+      </c>
+      <c r="F992">
+        <v>2.1</v>
+      </c>
+      <c r="G992" s="8">
+        <v>13418</v>
+      </c>
+      <c r="H992" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A993" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B993" s="6">
+        <v>22839</v>
+      </c>
+      <c r="C993" t="s">
+        <v>144</v>
+      </c>
+      <c r="D993">
+        <v>-2</v>
+      </c>
+      <c r="E993" s="7">
+        <v>40514.448611111111</v>
+      </c>
+      <c r="F993">
+        <v>14.95</v>
+      </c>
+      <c r="G993" s="8">
+        <v>14766</v>
+      </c>
+      <c r="H993" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A994" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B994" s="6">
+        <v>22927</v>
+      </c>
+      <c r="C994" t="s">
+        <v>537</v>
+      </c>
+      <c r="D994">
+        <v>2</v>
+      </c>
+      <c r="E994" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F994">
+        <v>5.95</v>
+      </c>
+      <c r="G994" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H994" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A995" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B995" s="6">
+        <v>22928</v>
+      </c>
+      <c r="C995" t="s">
+        <v>665</v>
+      </c>
+      <c r="D995">
+        <v>2</v>
+      </c>
+      <c r="E995" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F995">
+        <v>5.95</v>
+      </c>
+      <c r="G995" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H995" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A996" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B996" s="6">
+        <v>22926</v>
+      </c>
+      <c r="C996" t="s">
+        <v>143</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F996">
+        <v>5.95</v>
+      </c>
+      <c r="G996" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H996" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A997" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B997" s="6">
+        <v>22776</v>
+      </c>
+      <c r="C997" t="s">
+        <v>666</v>
+      </c>
+      <c r="D997">
+        <v>2</v>
+      </c>
+      <c r="E997" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F997">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G997" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H997" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A998" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B998" s="6">
+        <v>22778</v>
+      </c>
+      <c r="C998" t="s">
+        <v>667</v>
+      </c>
+      <c r="D998">
+        <v>4</v>
+      </c>
+      <c r="E998" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F998">
+        <v>3.95</v>
+      </c>
+      <c r="G998" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H998" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A999" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B999" s="6">
+        <v>22777</v>
+      </c>
+      <c r="C999" t="s">
+        <v>668</v>
+      </c>
+      <c r="D999">
+        <v>2</v>
+      </c>
+      <c r="E999" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F999">
+        <v>8.5</v>
+      </c>
+      <c r="G999" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H999" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1000" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1000" s="6">
+        <v>22783</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1000">
+        <v>1</v>
+      </c>
+      <c r="E1000" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1000">
+        <v>19.95</v>
+      </c>
+      <c r="G1000" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1001" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1001" s="6">
+        <v>22941</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1001">
+        <v>2</v>
+      </c>
+      <c r="E1001" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1001">
+        <v>8.5</v>
+      </c>
+      <c r="G1001" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1002" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1002" s="6">
+        <v>21756</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1002">
+        <v>3</v>
+      </c>
+      <c r="E1002" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1002">
+        <v>5.95</v>
+      </c>
+      <c r="G1002" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1003" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1003" s="6">
+        <v>22961</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1003">
+        <v>12</v>
+      </c>
+      <c r="E1003" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1003">
+        <v>1.45</v>
+      </c>
+      <c r="G1003" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1004" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1004" s="6">
+        <v>22423</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1004">
+        <v>4</v>
+      </c>
+      <c r="E1004" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1004">
+        <v>12.75</v>
+      </c>
+      <c r="G1004" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1005" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1005" s="6">
+        <v>22697</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1005">
+        <v>12</v>
+      </c>
+      <c r="E1005" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1005">
+        <v>2.95</v>
+      </c>
+      <c r="G1005" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1006" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1006" s="6">
+        <v>22699</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1006">
+        <v>12</v>
+      </c>
+      <c r="E1006" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1006">
+        <v>2.95</v>
+      </c>
+      <c r="G1006" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1007" s="5">
+        <v>536627</v>
+      </c>
+      <c r="B1007" s="6">
+        <v>21755</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1007">
+        <v>4</v>
+      </c>
+      <c r="E1007" s="7">
+        <v>40514.453472222223</v>
+      </c>
+      <c r="F1007">
+        <v>5.95</v>
+      </c>
+      <c r="G1007" s="8">
+        <v>15658</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1008" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1008">
+        <v>6</v>
+      </c>
+      <c r="E1008" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1008">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1008" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1009" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1009" s="6">
+        <v>71053</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1009">
+        <v>6</v>
+      </c>
+      <c r="E1009" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1009">
+        <v>3.39</v>
+      </c>
+      <c r="G1009" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1010" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1010">
+        <v>6</v>
+      </c>
+      <c r="E1010" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1010">
+        <v>2.75</v>
+      </c>
+      <c r="G1010" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1011" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1011" s="6">
+        <v>37370</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1011">
+        <v>6</v>
+      </c>
+      <c r="E1011" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1011">
+        <v>1.06</v>
+      </c>
+      <c r="G1011" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1012" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1012" s="6">
+        <v>21871</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1012">
+        <v>6</v>
+      </c>
+      <c r="E1012" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1012">
+        <v>1.06</v>
+      </c>
+      <c r="G1012" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1013" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1013" s="6">
+        <v>21071</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1013">
+        <v>6</v>
+      </c>
+      <c r="E1013" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1013">
+        <v>1.06</v>
+      </c>
+      <c r="G1013" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1014" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1014" s="6">
+        <v>21068</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1014">
+        <v>6</v>
+      </c>
+      <c r="E1014" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1014">
+        <v>1.06</v>
+      </c>
+      <c r="G1014" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1015" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1015" s="6">
+        <v>82483</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1015">
+        <v>4</v>
+      </c>
+      <c r="E1015" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1015">
+        <v>4.95</v>
+      </c>
+      <c r="G1015" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1016" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1016" s="6">
+        <v>82486</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1016">
+        <v>2</v>
+      </c>
+      <c r="E1016" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1016">
+        <v>6.95</v>
+      </c>
+      <c r="G1016" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1017" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1017" s="6">
+        <v>82482</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1017">
+        <v>6</v>
+      </c>
+      <c r="E1017" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1017">
+        <v>2.1</v>
+      </c>
+      <c r="G1017" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1018" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1018">
+        <v>6</v>
+      </c>
+      <c r="E1018" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1018">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1018" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1019" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1019" s="6">
+        <v>22411</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1019">
+        <v>6</v>
+      </c>
+      <c r="E1019" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1019">
+        <v>1.65</v>
+      </c>
+      <c r="G1019" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1020" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1020">
+        <v>6</v>
+      </c>
+      <c r="E1020" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1020">
+        <v>3.39</v>
+      </c>
+      <c r="G1020" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1020" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1021" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1021">
+        <v>6</v>
+      </c>
+      <c r="E1021" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1021">
+        <v>3.39</v>
+      </c>
+      <c r="G1021" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1022" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1022" s="6">
+        <v>22752</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1022">
+        <v>2</v>
+      </c>
+      <c r="E1022" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1022">
+        <v>7.65</v>
+      </c>
+      <c r="G1022" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1023" s="5">
+        <v>536628</v>
+      </c>
+      <c r="B1023" s="6">
+        <v>21730</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1023">
+        <v>6</v>
+      </c>
+      <c r="E1023" s="7">
+        <v>40514.45416666667</v>
+      </c>
+      <c r="F1023">
+        <v>4.25</v>
+      </c>
+      <c r="G1023" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1024" s="5">
+        <v>536629</v>
+      </c>
+      <c r="B1024" s="6">
+        <v>22632</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1024">
+        <v>6</v>
+      </c>
+      <c r="E1024" s="7">
+        <v>40514.454861111109</v>
+      </c>
+      <c r="F1024">
+        <v>1.85</v>
+      </c>
+      <c r="G1024" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1025" s="5">
+        <v>536629</v>
+      </c>
+      <c r="B1025" s="6">
+        <v>22633</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1025">
+        <v>6</v>
+      </c>
+      <c r="E1025" s="7">
+        <v>40514.454861111109</v>
+      </c>
+      <c r="F1025">
+        <v>1.85</v>
+      </c>
+      <c r="G1025" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1026" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1026">
+        <v>6</v>
+      </c>
+      <c r="E1026" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1026">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1026" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1027" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1027" s="6">
+        <v>71053</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1027">
+        <v>6</v>
+      </c>
+      <c r="E1027" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1027">
+        <v>3.39</v>
+      </c>
+      <c r="G1027" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1028" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1028">
+        <v>6</v>
+      </c>
+      <c r="E1028" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1028">
+        <v>2.75</v>
+      </c>
+      <c r="G1028" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1029" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1029" s="6">
+        <v>37370</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1029">
+        <v>6</v>
+      </c>
+      <c r="E1029" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1029">
+        <v>1.06</v>
+      </c>
+      <c r="G1029" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1030" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1030" s="6">
+        <v>21871</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1030">
+        <v>6</v>
+      </c>
+      <c r="E1030" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1030">
+        <v>1.06</v>
+      </c>
+      <c r="G1030" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1031" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1031" s="6">
+        <v>21071</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1031">
+        <v>6</v>
+      </c>
+      <c r="E1031" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1031">
+        <v>1.06</v>
+      </c>
+      <c r="G1031" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1032" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1032" s="6">
+        <v>21068</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1032">
+        <v>6</v>
+      </c>
+      <c r="E1032" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1032">
+        <v>1.06</v>
+      </c>
+      <c r="G1032" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1033" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1033" s="6">
+        <v>82483</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1033">
+        <v>4</v>
+      </c>
+      <c r="E1033" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1033">
+        <v>4.95</v>
+      </c>
+      <c r="G1033" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1034" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1034" s="6">
+        <v>82486</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1034">
+        <v>4</v>
+      </c>
+      <c r="E1034" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1034">
+        <v>6.95</v>
+      </c>
+      <c r="G1034" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1035" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1035" s="6">
+        <v>82482</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1035">
+        <v>6</v>
+      </c>
+      <c r="E1035" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1035">
+        <v>2.1</v>
+      </c>
+      <c r="G1035" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1036" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1036">
+        <v>6</v>
+      </c>
+      <c r="E1036" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1036">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1036" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1037" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1037" s="6">
+        <v>22411</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1037">
+        <v>6</v>
+      </c>
+      <c r="E1037" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1037">
+        <v>1.65</v>
+      </c>
+      <c r="G1037" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1038" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1038" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1038">
+        <v>6</v>
+      </c>
+      <c r="E1038" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1038">
+        <v>3.39</v>
+      </c>
+      <c r="G1038" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1039" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1039" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1039">
+        <v>6</v>
+      </c>
+      <c r="E1039" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1039">
+        <v>3.39</v>
+      </c>
+      <c r="G1039" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1040" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1040" s="6">
+        <v>22752</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1040">
+        <v>2</v>
+      </c>
+      <c r="E1040" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1040">
+        <v>7.65</v>
+      </c>
+      <c r="G1040" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1041" s="5">
+        <v>536630</v>
+      </c>
+      <c r="B1041" s="6">
+        <v>21730</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1041">
+        <v>6</v>
+      </c>
+      <c r="E1041" s="7">
+        <v>40514.455555555556</v>
+      </c>
+      <c r="F1041">
+        <v>4.25</v>
+      </c>
+      <c r="G1041" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1042" s="5">
+        <v>536631</v>
+      </c>
+      <c r="B1042" s="6">
+        <v>22632</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1042">
+        <v>6</v>
+      </c>
+      <c r="E1042" s="7">
+        <v>40514.456944444442</v>
+      </c>
+      <c r="F1042">
+        <v>1.85</v>
+      </c>
+      <c r="G1042" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1043" s="5">
+        <v>536631</v>
+      </c>
+      <c r="B1043" s="6">
+        <v>22633</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1043">
+        <v>6</v>
+      </c>
+      <c r="E1043" s="7">
+        <v>40514.456944444442</v>
+      </c>
+      <c r="F1043">
+        <v>1.85</v>
+      </c>
+      <c r="G1043" s="8">
+        <v>17850</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1044" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1044" s="6">
+        <v>21931</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1044">
+        <v>10</v>
+      </c>
+      <c r="E1044" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1044">
+        <v>1.95</v>
+      </c>
+      <c r="G1044" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1045" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1045" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1045">
+        <v>10</v>
+      </c>
+      <c r="E1045" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1045">
+        <v>1.95</v>
+      </c>
+      <c r="G1045" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1046" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1046" s="6">
+        <v>22386</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1046">
+        <v>10</v>
+      </c>
+      <c r="E1046" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1046">
+        <v>1.95</v>
+      </c>
+      <c r="G1046" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1047" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1047" s="6">
+        <v>22477</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1047">
+        <v>10</v>
+      </c>
+      <c r="E1047" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1047">
+        <v>1.25</v>
+      </c>
+      <c r="G1047" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1048" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1048" s="6">
+        <v>21875</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>672</v>
+      </c>
+      <c r="D1048">
+        <v>12</v>
+      </c>
+      <c r="E1048" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1048">
+        <v>1.25</v>
+      </c>
+      <c r="G1048" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1049" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1049" s="6">
+        <v>37370</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1049">
+        <v>12</v>
+      </c>
+      <c r="E1049" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1049">
+        <v>1.25</v>
+      </c>
+      <c r="G1049" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1050" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1050" s="6">
+        <v>21479</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1050">
+        <v>4</v>
+      </c>
+      <c r="E1050" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1050">
+        <v>3.75</v>
+      </c>
+      <c r="G1050" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1051" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1051" s="6">
+        <v>21484</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1051">
+        <v>4</v>
+      </c>
+      <c r="E1051" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1051">
+        <v>3.45</v>
+      </c>
+      <c r="G1051" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1052" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1052" s="6">
+        <v>21485</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1052">
+        <v>3</v>
+      </c>
+      <c r="E1052" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1052">
+        <v>4.95</v>
+      </c>
+      <c r="G1052" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1053" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1053" s="6">
+        <v>22111</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1053">
+        <v>3</v>
+      </c>
+      <c r="E1053" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1053">
+        <v>4.95</v>
+      </c>
+      <c r="G1053" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1054" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1054" s="6">
+        <v>22837</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1054">
+        <v>4</v>
+      </c>
+      <c r="E1054" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1054">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G1054" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1055" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1055" s="6">
+        <v>22812</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1055">
+        <v>12</v>
+      </c>
+      <c r="E1055" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1055">
+        <v>1.95</v>
+      </c>
+      <c r="G1055" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1056" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1056" s="6">
+        <v>22739</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1056">
+        <v>10</v>
+      </c>
+      <c r="E1056" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1056">
+        <v>1.65</v>
+      </c>
+      <c r="G1056" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1057" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1057" s="6">
+        <v>22924</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1057">
+        <v>12</v>
+      </c>
+      <c r="E1057" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1057">
+        <v>0.85</v>
+      </c>
+      <c r="G1057" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1058" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1058" s="6">
+        <v>22923</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1058">
+        <v>12</v>
+      </c>
+      <c r="E1058" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1058">
+        <v>0.85</v>
+      </c>
+      <c r="G1058" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1059" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1059" s="6">
+        <v>22961</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1059">
+        <v>12</v>
+      </c>
+      <c r="E1059" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1059">
+        <v>1.45</v>
+      </c>
+      <c r="G1059" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1060" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1060" s="6">
+        <v>22964</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1060">
+        <v>6</v>
+      </c>
+      <c r="E1060" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1060">
+        <v>2.1</v>
+      </c>
+      <c r="G1060" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1061" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1061" s="6">
+        <v>22988</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1061">
+        <v>12</v>
+      </c>
+      <c r="E1061" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1061">
+        <v>1.25</v>
+      </c>
+      <c r="G1061" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1062" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1062" s="6">
+        <v>21843</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1062">
+        <v>1</v>
+      </c>
+      <c r="E1062" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1062">
+        <v>10.95</v>
+      </c>
+      <c r="G1062" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1062" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1063" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1063" s="6">
+        <v>21217</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1063">
+        <v>1</v>
+      </c>
+      <c r="E1063" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1063">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1063" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1064" s="5">
+        <v>536632</v>
+      </c>
+      <c r="B1064" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1064">
+        <v>10</v>
+      </c>
+      <c r="E1064" s="7">
+        <v>40514.459722222222</v>
+      </c>
+      <c r="F1064">
+        <v>0.85</v>
+      </c>
+      <c r="G1064" s="8">
+        <v>14388</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1065" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1065" s="6">
+        <v>22952</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1065">
+        <v>24</v>
+      </c>
+      <c r="E1065" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1065">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G1065" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1066" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1066" s="6">
+        <v>22301</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1066">
+        <v>1</v>
+      </c>
+      <c r="E1066" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1066">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1066" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1066" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1067" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1067" s="6">
+        <v>22960</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1067">
+        <v>6</v>
+      </c>
+      <c r="E1067" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1067">
+        <v>4.25</v>
+      </c>
+      <c r="G1067" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1068" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1068" s="6">
+        <v>22446</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1068">
+        <v>3</v>
+      </c>
+      <c r="E1068" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1068">
+        <v>3.35</v>
+      </c>
+      <c r="G1068" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1068" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1069" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1069" s="6">
+        <v>22086</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1069">
+        <v>10</v>
+      </c>
+      <c r="E1069" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1069">
+        <v>2.95</v>
+      </c>
+      <c r="G1069" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1070" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1070" s="6">
+        <v>22961</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1070">
+        <v>6</v>
+      </c>
+      <c r="E1070" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1070">
+        <v>1.45</v>
+      </c>
+      <c r="G1070" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1071" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1071" s="6">
+        <v>22728</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1071">
+        <v>4</v>
+      </c>
+      <c r="E1071" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1071">
+        <v>3.75</v>
+      </c>
+      <c r="G1071" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1072" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1072" s="6">
+        <v>22730</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1072">
+        <v>4</v>
+      </c>
+      <c r="E1072" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1072">
+        <v>3.75</v>
+      </c>
+      <c r="G1072" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1073" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1073" s="6">
+        <v>84380</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1073">
+        <v>6</v>
+      </c>
+      <c r="E1073" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1073">
+        <v>1.25</v>
+      </c>
+      <c r="G1073" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1074" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1074" s="6">
+        <v>22832</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>680</v>
+      </c>
+      <c r="D1074">
+        <v>4</v>
+      </c>
+      <c r="E1074" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1074">
+        <v>10.75</v>
+      </c>
+      <c r="G1074" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1075" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1075" s="6">
+        <v>22926</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1075">
+        <v>1</v>
+      </c>
+      <c r="E1075" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1075">
+        <v>5.95</v>
+      </c>
+      <c r="G1075" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1076" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1076" s="6">
+        <v>22920</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1076">
+        <v>2</v>
+      </c>
+      <c r="E1076" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1076">
+        <v>0.65</v>
+      </c>
+      <c r="G1076" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1077" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1077" s="6">
+        <v>22916</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1077">
+        <v>2</v>
+      </c>
+      <c r="E1077" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1077">
+        <v>0.65</v>
+      </c>
+      <c r="G1077" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1078" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1078" s="6">
+        <v>22919</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1078">
+        <v>2</v>
+      </c>
+      <c r="E1078" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1078">
+        <v>0.65</v>
+      </c>
+      <c r="G1078" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1079" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1079" s="6">
+        <v>22917</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>648</v>
+      </c>
+      <c r="D1079">
+        <v>2</v>
+      </c>
+      <c r="E1079" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1079">
+        <v>0.65</v>
+      </c>
+      <c r="G1079" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1080" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1080" s="6">
+        <v>22921</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1080">
+        <v>2</v>
+      </c>
+      <c r="E1080" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1080">
+        <v>0.65</v>
+      </c>
+      <c r="G1080" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1080" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1081" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1081" s="6">
+        <v>22918</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1081">
+        <v>2</v>
+      </c>
+      <c r="E1081" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1081">
+        <v>0.65</v>
+      </c>
+      <c r="G1081" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1082" s="5">
+        <v>536633</v>
+      </c>
+      <c r="B1082" s="6">
+        <v>22909</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1082">
+        <v>24</v>
+      </c>
+      <c r="E1082" s="7">
+        <v>40514.472222222219</v>
+      </c>
+      <c r="F1082">
+        <v>0.85</v>
+      </c>
+      <c r="G1082" s="8">
+        <v>14901</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1083" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1083" s="6">
+        <v>22457</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1083">
+        <v>4</v>
+      </c>
+      <c r="E1083" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1083">
+        <v>2.95</v>
+      </c>
+      <c r="G1083" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1084" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1084" s="6">
+        <v>20674</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1084">
+        <v>12</v>
+      </c>
+      <c r="E1084" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1084">
+        <v>1.25</v>
+      </c>
+      <c r="G1084" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1085" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1085" s="6">
+        <v>20676</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1085">
+        <v>12</v>
+      </c>
+      <c r="E1085" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1085">
+        <v>1.25</v>
+      </c>
+      <c r="G1085" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1086" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1086" s="6">
+        <v>20727</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1086">
+        <v>20</v>
+      </c>
+      <c r="E1086" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1086">
+        <v>1.65</v>
+      </c>
+      <c r="G1086" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1087" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1087" s="6">
+        <v>82582</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1087">
+        <v>1</v>
+      </c>
+      <c r="E1087" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1087">
+        <v>2.1</v>
+      </c>
+      <c r="G1087" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1088" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1088" s="6">
+        <v>21181</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1088">
+        <v>2</v>
+      </c>
+      <c r="E1088" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1088">
+        <v>2.1</v>
+      </c>
+      <c r="G1088" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1089" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1089" s="6">
+        <v>22900</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1089">
+        <v>1</v>
+      </c>
+      <c r="E1089" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1089">
+        <v>2.95</v>
+      </c>
+      <c r="G1089" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1090" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1090" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1090">
+        <v>2</v>
+      </c>
+      <c r="E1090" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1090">
+        <v>2.95</v>
+      </c>
+      <c r="G1090" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1091" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1091" s="6">
+        <v>21967</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>685</v>
+      </c>
+      <c r="D1091">
+        <v>12</v>
+      </c>
+      <c r="E1091" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1091">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G1091" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1092" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1092" s="6">
+        <v>22170</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1092">
+        <v>3</v>
+      </c>
+      <c r="E1092" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1092">
+        <v>6.75</v>
+      </c>
+      <c r="G1092" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1093" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1093" s="6">
+        <v>21210</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1093">
+        <v>2</v>
+      </c>
+      <c r="E1093" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1093">
+        <v>1.45</v>
+      </c>
+      <c r="G1093" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1094" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1094" s="6">
+        <v>21679</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1094">
+        <v>30</v>
+      </c>
+      <c r="E1094" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1094">
+        <v>0.85</v>
+      </c>
+      <c r="G1094" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1095" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1095" s="6">
+        <v>22094</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1095">
+        <v>6</v>
+      </c>
+      <c r="E1095" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1095">
+        <v>1.25</v>
+      </c>
+      <c r="G1095" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1096" s="5">
+        <v>536634</v>
+      </c>
+      <c r="B1096" s="6">
+        <v>21080</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1096">
+        <v>52</v>
+      </c>
+      <c r="E1096" s="7">
+        <v>40514.472916666666</v>
+      </c>
+      <c r="F1096">
+        <v>0.85</v>
+      </c>
+      <c r="G1096" s="8">
+        <v>18041</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1097" s="5">
+        <v>536635</v>
+      </c>
+      <c r="B1097" s="6">
+        <v>21429</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1097">
+        <v>16</v>
+      </c>
+      <c r="E1097" s="7">
+        <v>40514.473611111112</v>
+      </c>
+      <c r="F1097">
+        <v>1.65</v>
+      </c>
+      <c r="G1097" s="8">
+        <v>15955</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1098" s="5">
+        <v>536635</v>
+      </c>
+      <c r="B1098" s="6">
+        <v>21428</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1098">
+        <v>8</v>
+      </c>
+      <c r="E1098" s="7">
+        <v>40514.473611111112</v>
+      </c>
+      <c r="F1098">
+        <v>4.25</v>
+      </c>
+      <c r="G1098" s="8">
+        <v>15955</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1099" s="5">
+        <v>536635</v>
+      </c>
+      <c r="B1099" s="6">
+        <v>22961</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1099">
+        <v>12</v>
+      </c>
+      <c r="E1099" s="7">
+        <v>40514.473611111112</v>
+      </c>
+      <c r="F1099">
+        <v>1.45</v>
+      </c>
+      <c r="G1099" s="8">
+        <v>15955</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1100" s="5">
+        <v>536635</v>
+      </c>
+      <c r="B1100" s="6">
+        <v>84375</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1100">
+        <v>12</v>
+      </c>
+      <c r="E1100" s="7">
+        <v>40514.473611111112</v>
+      </c>
+      <c r="F1100">
+        <v>2.1</v>
+      </c>
+      <c r="G1100" s="8">
+        <v>15955</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1101" s="5">
+        <v>536635</v>
+      </c>
+      <c r="B1101" s="6">
+        <v>21877</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>691</v>
+      </c>
+      <c r="D1101">
+        <v>12</v>
+      </c>
+      <c r="E1101" s="7">
+        <v>40514.473611111112</v>
+      </c>
+      <c r="F1101">
+        <v>1.25</v>
+      </c>
+      <c r="G1101" s="8">
+        <v>15955</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1102" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1102" s="6">
+        <v>22155</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1102">
+        <v>48</v>
+      </c>
+      <c r="E1102" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1102">
+        <v>0.42</v>
+      </c>
+      <c r="G1102" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1103" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1103" s="6">
+        <v>21807</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1103">
+        <v>36</v>
+      </c>
+      <c r="E1103" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1103">
+        <v>0.42</v>
+      </c>
+      <c r="G1103" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1104" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1104" s="6">
+        <v>22161</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1104">
+        <v>24</v>
+      </c>
+      <c r="E1104" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1104">
+        <v>0.65</v>
+      </c>
+      <c r="G1104" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1105" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1105" s="6">
+        <v>22065</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1105">
+        <v>24</v>
+      </c>
+      <c r="E1105" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1105">
+        <v>1.45</v>
+      </c>
+      <c r="G1105" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1106" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1106" s="6">
+        <v>20956</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1106">
+        <v>12</v>
+      </c>
+      <c r="E1106" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1106">
+        <v>1.25</v>
+      </c>
+      <c r="G1106" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1107" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1107" s="6">
+        <v>84347</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1107">
+        <v>6</v>
+      </c>
+      <c r="E1107" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1107">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1107" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1108" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1108" s="6">
+        <v>21231</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1108">
+        <v>24</v>
+      </c>
+      <c r="E1108" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1108">
+        <v>1.25</v>
+      </c>
+      <c r="G1108" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1109" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1109" s="6">
+        <v>21232</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1109">
+        <v>24</v>
+      </c>
+      <c r="E1109" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1109">
+        <v>1.25</v>
+      </c>
+      <c r="G1109" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1110" s="5">
+        <v>536847</v>
+      </c>
+      <c r="B1110" s="6">
+        <v>22067</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1110">
+        <v>24</v>
+      </c>
+      <c r="E1110" s="7">
+        <v>40515.396527777775</v>
+      </c>
+      <c r="F1110">
+        <v>1.65</v>
+      </c>
+      <c r="G1110" s="8">
+        <v>17135</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1111" s="5">
+        <v>536848</v>
+      </c>
+      <c r="B1111" s="6">
+        <v>22910</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1111">
+        <v>80</v>
+      </c>
+      <c r="E1111" s="7">
+        <v>40515.402083333334</v>
+      </c>
+      <c r="F1111">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1111" s="8">
+        <v>13408</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1112" s="5">
+        <v>536848</v>
+      </c>
+      <c r="B1112" s="6">
+        <v>21930</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1112">
+        <v>100</v>
+      </c>
+      <c r="E1112" s="7">
+        <v>40515.402083333334</v>
+      </c>
+      <c r="F1112">
+        <v>1.65</v>
+      </c>
+      <c r="G1112" s="8">
+        <v>13408</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1113" s="5">
+        <v>536848</v>
+      </c>
+      <c r="B1113" s="6">
+        <v>21928</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1113">
+        <v>100</v>
+      </c>
+      <c r="E1113" s="7">
+        <v>40515.402083333334</v>
+      </c>
+      <c r="F1113">
+        <v>1.65</v>
+      </c>
+      <c r="G1113" s="8">
+        <v>13408</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1114" s="5">
+        <v>536849</v>
+      </c>
+      <c r="B1114" s="6">
+        <v>22730</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1114">
+        <v>19</v>
+      </c>
+      <c r="E1114" s="7">
+        <v>40515.40625</v>
+      </c>
+      <c r="F1114">
+        <v>3.75</v>
+      </c>
+      <c r="G1114" s="8">
+        <v>17396</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1115" s="5">
+        <v>536849</v>
+      </c>
+      <c r="B1115" s="6">
+        <v>22727</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1115">
+        <v>48</v>
+      </c>
+      <c r="E1115" s="7">
+        <v>40515.40625</v>
+      </c>
+      <c r="F1115">
+        <v>3.75</v>
+      </c>
+      <c r="G1115" s="8">
+        <v>17396</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1116" s="5">
+        <v>536849</v>
+      </c>
+      <c r="B1116" s="6">
+        <v>22728</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1116">
+        <v>39</v>
+      </c>
+      <c r="E1116" s="7">
+        <v>40515.40625</v>
+      </c>
+      <c r="F1116">
+        <v>3.75</v>
+      </c>
+      <c r="G1116" s="8">
+        <v>17396</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1117" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1117" s="6">
+        <v>22942</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1117">
+        <v>-48</v>
+      </c>
+      <c r="E1117" s="7">
+        <v>40515.407638888886</v>
+      </c>
+      <c r="F1117">
+        <v>7.65</v>
+      </c>
+      <c r="G1117" s="8">
+        <v>14213</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1118" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1118" s="6">
+        <v>22689</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1118">
+        <v>-50</v>
+      </c>
+      <c r="E1118" s="7">
+        <v>40515.407638888886</v>
+      </c>
+      <c r="F1118">
+        <v>6.75</v>
+      </c>
+      <c r="G1118" s="8">
+        <v>14213</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1119" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1119" s="6">
+        <v>22591</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1119">
+        <v>-50</v>
+      </c>
+      <c r="E1119" s="7">
+        <v>40515.407638888886</v>
+      </c>
+      <c r="F1119">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1119" s="8">
+        <v>14213</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1120" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1120" s="6">
+        <v>22580</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1120">
+        <v>-48</v>
+      </c>
+      <c r="E1120" s="7">
+        <v>40515.407638888886</v>
+      </c>
+      <c r="F1120">
+        <v>4.95</v>
+      </c>
+      <c r="G1120" s="8">
+        <v>14213</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1121" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1121" s="6">
+        <v>22186</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1121">
+        <v>-48</v>
+      </c>
+      <c r="E1121" s="7">
+        <v>40515.407638888886</v>
+      </c>
+      <c r="F1121">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1121" s="8">
+        <v>14213</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1122" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1122" s="6">
+        <v>20682</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1122">
+        <v>24</v>
+      </c>
+      <c r="E1122" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1122">
+        <v>3.25</v>
+      </c>
+      <c r="G1122" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1123" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1123" s="6">
+        <v>22111</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1123">
+        <v>36</v>
+      </c>
+      <c r="E1123" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1123">
+        <v>4.95</v>
+      </c>
+      <c r="G1123" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1124" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1124" s="6">
+        <v>21485</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1124">
+        <v>6</v>
+      </c>
+      <c r="E1124" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1124">
+        <v>4.95</v>
+      </c>
+      <c r="G1124" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1125" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1125" s="6">
+        <v>22128</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1125">
+        <v>60</v>
+      </c>
+      <c r="E1125" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1125">
+        <v>1.25</v>
+      </c>
+      <c r="G1125" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1126" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1126" s="6">
+        <v>20749</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1126">
+        <v>12</v>
+      </c>
+      <c r="E1126" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1126">
+        <v>7.95</v>
+      </c>
+      <c r="G1126" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1127" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1127" s="6">
+        <v>22276</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>705</v>
+      </c>
+      <c r="D1127">
+        <v>36</v>
+      </c>
+      <c r="E1127" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1127">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1127" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1128" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1128" s="6">
+        <v>22503</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1128">
+        <v>6</v>
+      </c>
+      <c r="E1128" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1128">
+        <v>29.95</v>
+      </c>
+      <c r="G1128" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1129" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1129" s="6">
+        <v>21430</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>707</v>
+      </c>
+      <c r="D1129">
+        <v>48</v>
+      </c>
+      <c r="E1129" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1129">
+        <v>4.25</v>
+      </c>
+      <c r="G1129" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1130" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1130" s="6">
+        <v>21429</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1130">
+        <v>56</v>
+      </c>
+      <c r="E1130" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1130">
+        <v>1.65</v>
+      </c>
+      <c r="G1130" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1131" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1131" s="6">
+        <v>21428</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1131">
+        <v>8</v>
+      </c>
+      <c r="E1131" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1131">
+        <v>4.25</v>
+      </c>
+      <c r="G1131" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1132" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1132" s="6">
+        <v>22333</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1132">
+        <v>32</v>
+      </c>
+      <c r="E1132" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1132">
+        <v>1.65</v>
+      </c>
+      <c r="G1132" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1133" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1133" s="6">
+        <v>22180</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1133">
+        <v>6</v>
+      </c>
+      <c r="E1133" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1133">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1133" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1134" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1134" s="6">
+        <v>22504</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1134">
+        <v>6</v>
+      </c>
+      <c r="E1134" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1134">
+        <v>29.95</v>
+      </c>
+      <c r="G1134" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1135" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1135" s="6">
+        <v>21094</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1135">
+        <v>12</v>
+      </c>
+      <c r="E1135" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1135">
+        <v>0.85</v>
+      </c>
+      <c r="G1135" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1136" s="5">
+        <v>536851</v>
+      </c>
+      <c r="B1136" s="6">
+        <v>21086</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1136">
+        <v>12</v>
+      </c>
+      <c r="E1136" s="7">
+        <v>40515.40902777778</v>
+      </c>
+      <c r="F1136">
+        <v>0.65</v>
+      </c>
+      <c r="G1136" s="8">
+        <v>12967</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1137" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1137" s="6">
+        <v>22549</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1137">
+        <v>12</v>
+      </c>
+      <c r="E1137" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1137">
+        <v>1.45</v>
+      </c>
+      <c r="G1137" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1138" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1138" s="6">
+        <v>22544</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1138">
+        <v>24</v>
+      </c>
+      <c r="E1138" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1138">
+        <v>0.42</v>
+      </c>
+      <c r="G1138" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1139" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1139" s="6">
+        <v>22539</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1139">
+        <v>24</v>
+      </c>
+      <c r="E1139" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1139">
+        <v>0.42</v>
+      </c>
+      <c r="G1139" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1140" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1140" s="6">
+        <v>22661</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1140">
+        <v>10</v>
+      </c>
+      <c r="E1140" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1140">
+        <v>0.85</v>
+      </c>
+      <c r="G1140" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1141" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1141" s="6">
+        <v>21791</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1141">
+        <v>12</v>
+      </c>
+      <c r="E1141" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1141">
+        <v>1.25</v>
+      </c>
+      <c r="G1141" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1142" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1142" s="6">
+        <v>21786</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1142">
+        <v>24</v>
+      </c>
+      <c r="E1142" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1142">
+        <v>0.42</v>
+      </c>
+      <c r="G1142" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1143" s="5">
+        <v>536852</v>
+      </c>
+      <c r="B1143" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1143">
+        <v>1</v>
+      </c>
+      <c r="E1143" s="7">
+        <v>40515.410416666666</v>
+      </c>
+      <c r="F1143">
+        <v>18</v>
+      </c>
+      <c r="G1143" s="8">
+        <v>12686</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1144" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1144" s="6">
+        <v>22386</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1144">
+        <v>10</v>
+      </c>
+      <c r="E1144" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1144">
+        <v>1.95</v>
+      </c>
+      <c r="G1144" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1145" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1145" s="6">
+        <v>21499</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1145">
+        <v>25</v>
+      </c>
+      <c r="E1145" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1145">
+        <v>0.42</v>
+      </c>
+      <c r="G1145" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1146" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1146" s="6">
+        <v>21498</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>711</v>
+      </c>
+      <c r="D1146">
+        <v>25</v>
+      </c>
+      <c r="E1146" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1146">
+        <v>0.42</v>
+      </c>
+      <c r="G1146" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1147" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1147" s="6">
+        <v>22379</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1147">
+        <v>5</v>
+      </c>
+      <c r="E1147" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1147">
+        <v>2.1</v>
+      </c>
+      <c r="G1147" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1148" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1148" s="6">
+        <v>20718</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1148">
+        <v>10</v>
+      </c>
+      <c r="E1148" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1148">
+        <v>1.25</v>
+      </c>
+      <c r="G1148" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1149" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1149" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1149">
+        <v>10</v>
+      </c>
+      <c r="E1149" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1149">
+        <v>1.95</v>
+      </c>
+      <c r="G1149" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1150" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1150" s="6">
+        <v>20682</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1150">
+        <v>6</v>
+      </c>
+      <c r="E1150" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1150">
+        <v>3.25</v>
+      </c>
+      <c r="G1150" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1151" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1151" s="6">
+        <v>22961</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1151">
+        <v>12</v>
+      </c>
+      <c r="E1151" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1151">
+        <v>1.45</v>
+      </c>
+      <c r="G1151" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1152" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1152" s="6">
+        <v>22667</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1152">
+        <v>6</v>
+      </c>
+      <c r="E1152" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1152">
+        <v>2.95</v>
+      </c>
+      <c r="G1152" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1153" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1153" s="6">
+        <v>22898</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1153">
+        <v>8</v>
+      </c>
+      <c r="E1153" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1153">
+        <v>1.95</v>
+      </c>
+      <c r="G1153" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1154" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1154" s="6">
+        <v>22896</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1154">
+        <v>6</v>
+      </c>
+      <c r="E1154" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1154">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1154" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1155" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1155" s="6">
+        <v>22303</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1155">
+        <v>6</v>
+      </c>
+      <c r="E1155" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1155">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1155" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1156" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1156" s="6">
+        <v>22302</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1156">
+        <v>6</v>
+      </c>
+      <c r="E1156" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1156">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1156" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1157" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1157" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1157">
+        <v>12</v>
+      </c>
+      <c r="E1157" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1157">
+        <v>2.95</v>
+      </c>
+      <c r="G1157" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1158" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1158" s="6">
+        <v>22808</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1158">
+        <v>12</v>
+      </c>
+      <c r="E1158" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1158">
+        <v>2.95</v>
+      </c>
+      <c r="G1158" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1159" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1159" s="6">
+        <v>22458</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1159">
+        <v>8</v>
+      </c>
+      <c r="E1159" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1159">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1159" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1160" s="5">
+        <v>539993</v>
+      </c>
+      <c r="B1160" s="6">
+        <v>22862</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1160">
+        <v>4</v>
+      </c>
+      <c r="E1160" s="7">
+        <v>40547.416666666664</v>
+      </c>
+      <c r="F1160">
+        <v>4.25</v>
+      </c>
+      <c r="G1160" s="8">
+        <v>13313</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1161" s="5">
+        <v>539994</v>
+      </c>
+      <c r="B1161" s="6">
+        <v>22830</v>
+      </c>
+      <c r="D1161">
+        <v>-1</v>
+      </c>
+      <c r="E1161" s="7">
+        <v>40547.42291666667</v>
+      </c>
+      <c r="F1161">
+        <v>0</v>
+      </c>
+      <c r="G1161" s="8"/>
+      <c r="H1161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1162" s="5">
+        <v>539995</v>
+      </c>
+      <c r="B1162" s="6">
+        <v>85064</v>
+      </c>
+      <c r="D1162">
+        <v>-12</v>
+      </c>
+      <c r="E1162" s="7">
+        <v>40547.425000000003</v>
+      </c>
+      <c r="F1162">
+        <v>0</v>
+      </c>
+      <c r="G1162" s="8"/>
+      <c r="H1162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1163" s="5">
+        <v>539996</v>
+      </c>
+      <c r="B1163" s="6">
+        <v>21784</v>
+      </c>
+      <c r="D1163">
+        <v>-10</v>
+      </c>
+      <c r="E1163" s="7">
+        <v>40547.425000000003</v>
+      </c>
+      <c r="F1163">
+        <v>0</v>
+      </c>
+      <c r="G1163" s="8"/>
+      <c r="H1163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1164" s="5">
+        <v>539997</v>
+      </c>
+      <c r="B1164" s="6">
+        <v>84689</v>
+      </c>
+      <c r="D1164">
+        <v>5</v>
+      </c>
+      <c r="E1164" s="7">
+        <v>40547.427083333336</v>
+      </c>
+      <c r="F1164">
+        <v>0</v>
+      </c>
+      <c r="G1164" s="8"/>
+      <c r="H1164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1165" s="5">
+        <v>539998</v>
+      </c>
+      <c r="B1165" s="6">
+        <v>84675</v>
+      </c>
+      <c r="D1165">
+        <v>2</v>
+      </c>
+      <c r="E1165" s="7">
+        <v>40547.427777777775</v>
+      </c>
+      <c r="F1165">
+        <v>0</v>
+      </c>
+      <c r="G1165" s="8"/>
+      <c r="H1165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1166" s="5">
+        <v>539999</v>
+      </c>
+      <c r="B1166" s="6">
+        <v>20892</v>
+      </c>
+      <c r="D1166">
+        <v>-1</v>
+      </c>
+      <c r="E1166" s="7">
+        <v>40547.427777777775</v>
+      </c>
+      <c r="F1166">
+        <v>0</v>
+      </c>
+      <c r="G1166" s="8"/>
+      <c r="H1166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1167" s="5">
+        <v>540000</v>
+      </c>
+      <c r="B1167" s="6">
+        <v>84499</v>
+      </c>
+      <c r="D1167">
+        <v>-9</v>
+      </c>
+      <c r="E1167" s="7">
+        <v>40547.428472222222</v>
+      </c>
+      <c r="F1167">
+        <v>0</v>
+      </c>
+      <c r="G1167" s="8"/>
+      <c r="H1167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1168" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1168" s="6">
+        <v>21733</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1168">
+        <v>32</v>
+      </c>
+      <c r="E1168" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1168">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1168" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1169" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1169" s="6">
+        <v>22062</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1169">
+        <v>24</v>
+      </c>
+      <c r="E1169" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1169">
+        <v>2.95</v>
+      </c>
+      <c r="G1169" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1170" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1170" s="6">
+        <v>22060</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1170">
+        <v>6</v>
+      </c>
+      <c r="E1170" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1170">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1170" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1171" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1171" s="6">
+        <v>22151</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1171">
+        <v>48</v>
+      </c>
+      <c r="E1171" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1171">
+        <v>0.42</v>
+      </c>
+      <c r="G1171" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1172" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1172" s="6">
+        <v>22508</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1172">
+        <v>16</v>
+      </c>
+      <c r="E1172" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1172">
+        <v>3.39</v>
+      </c>
+      <c r="G1172" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1173" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1173" s="6">
+        <v>21411</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1173">
+        <v>12</v>
+      </c>
+      <c r="E1173" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1173">
+        <v>4.25</v>
+      </c>
+      <c r="G1173" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1174" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1174" s="6">
+        <v>22644</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1174">
+        <v>60</v>
+      </c>
+      <c r="E1174" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1174">
+        <v>1.45</v>
+      </c>
+      <c r="G1174" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1175" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1175" s="6">
+        <v>70006</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1175">
+        <v>48</v>
+      </c>
+      <c r="E1175" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1175">
+        <v>0.42</v>
+      </c>
+      <c r="G1175" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1176" s="5">
+        <v>540001</v>
+      </c>
+      <c r="B1176" s="6">
+        <v>21231</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1176">
+        <v>24</v>
+      </c>
+      <c r="E1176" s="7">
+        <v>40547.431944444441</v>
+      </c>
+      <c r="F1176">
+        <v>1.25</v>
+      </c>
+      <c r="G1176" s="8">
+        <v>18097</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1177" s="5">
+        <v>540002</v>
+      </c>
+      <c r="B1177" s="6">
+        <v>21911</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>724</v>
+      </c>
+      <c r="D1177">
+        <v>12</v>
+      </c>
+      <c r="E1177" s="7">
+        <v>40547.432638888888</v>
+      </c>
+      <c r="F1177">
+        <v>1.65</v>
+      </c>
+      <c r="G1177" s="8">
+        <v>16656</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1178" s="5">
+        <v>540002</v>
+      </c>
+      <c r="B1178" s="6">
+        <v>22625</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1178">
+        <v>8</v>
+      </c>
+      <c r="E1178" s="7">
+        <v>40547.432638888888</v>
+      </c>
+      <c r="F1178">
+        <v>8.5</v>
+      </c>
+      <c r="G1178" s="8">
+        <v>16656</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1179" s="5">
+        <v>540002</v>
+      </c>
+      <c r="B1179" s="6">
+        <v>21259</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1179">
+        <v>24</v>
+      </c>
+      <c r="E1179" s="7">
+        <v>40547.432638888888</v>
+      </c>
+      <c r="F1179">
+        <v>4.95</v>
+      </c>
+      <c r="G1179" s="8">
+        <v>16656</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1180" s="5">
+        <v>540002</v>
+      </c>
+      <c r="B1180" s="6">
+        <v>21790</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1180">
+        <v>144</v>
+      </c>
+      <c r="E1180" s="7">
+        <v>40547.432638888888</v>
+      </c>
+      <c r="F1180">
+        <v>0.72</v>
+      </c>
+      <c r="G1180" s="8">
+        <v>16656</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1181" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1181" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1181">
+        <v>12</v>
+      </c>
+      <c r="E1181" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1181">
+        <v>0.85</v>
+      </c>
+      <c r="G1181" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1182" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1182" s="6">
+        <v>22846</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1182">
+        <v>1</v>
+      </c>
+      <c r="E1182" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1182">
+        <v>16.95</v>
+      </c>
+      <c r="G1182" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1183" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1183" s="6">
+        <v>22624</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1183">
+        <v>2</v>
+      </c>
+      <c r="E1183" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1183">
+        <v>8.5</v>
+      </c>
+      <c r="G1183" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1184" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1184" s="6">
+        <v>22767</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1184">
+        <v>4</v>
+      </c>
+      <c r="E1184" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1184">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1184" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1185" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1185" s="6">
+        <v>22963</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1185">
+        <v>12</v>
+      </c>
+      <c r="E1185" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1185">
+        <v>0.85</v>
+      </c>
+      <c r="G1185" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1186" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1186" s="6">
+        <v>22962</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1186">
+        <v>12</v>
+      </c>
+      <c r="E1186" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1186">
+        <v>0.85</v>
+      </c>
+      <c r="G1186" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1187" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1187" s="6">
+        <v>22427</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1187">
+        <v>3</v>
+      </c>
+      <c r="E1187" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1187">
+        <v>5.95</v>
+      </c>
+      <c r="G1187" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1188" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1188" s="6">
+        <v>22796</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1188">
+        <v>2</v>
+      </c>
+      <c r="E1188" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1188">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1188" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1189" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1189" s="6">
+        <v>22193</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1189">
+        <v>2</v>
+      </c>
+      <c r="E1189" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1189">
+        <v>8.5</v>
+      </c>
+      <c r="G1189" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1190" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1190" s="6">
+        <v>22191</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1190">
+        <v>2</v>
+      </c>
+      <c r="E1190" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1190">
+        <v>8.5</v>
+      </c>
+      <c r="G1190" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1191" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1191" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1191">
+        <v>12</v>
+      </c>
+      <c r="E1191" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1191">
+        <v>0.95</v>
+      </c>
+      <c r="G1191" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1192" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1192" s="6">
+        <v>22907</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>729</v>
+      </c>
+      <c r="D1192">
+        <v>12</v>
+      </c>
+      <c r="E1192" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1192">
+        <v>0.85</v>
+      </c>
+      <c r="G1192" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1193" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1193" s="6">
+        <v>22768</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1193">
+        <v>2</v>
+      </c>
+      <c r="E1193" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1193">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1193" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1194" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1194" s="6">
+        <v>22961</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1194">
+        <v>12</v>
+      </c>
+      <c r="E1194" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1194">
+        <v>1.45</v>
+      </c>
+      <c r="G1194" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1195" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1195" s="6">
+        <v>22171</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>730</v>
+      </c>
+      <c r="D1195">
+        <v>2</v>
+      </c>
+      <c r="E1195" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1195">
+        <v>8.5</v>
+      </c>
+      <c r="G1195" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1196" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1196" s="6">
+        <v>84978</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1196">
+        <v>12</v>
+      </c>
+      <c r="E1196" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1196">
+        <v>1.25</v>
+      </c>
+      <c r="G1196" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1197" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1197" s="6">
+        <v>22776</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>732</v>
+      </c>
+      <c r="D1197">
+        <v>2</v>
+      </c>
+      <c r="E1197" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1197">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1197" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1198" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1198" s="6">
+        <v>84378</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1198">
+        <v>12</v>
+      </c>
+      <c r="E1198" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1198">
+        <v>1.25</v>
+      </c>
+      <c r="G1198" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1199" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1199" s="6">
+        <v>22847</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1199">
+        <v>1</v>
+      </c>
+      <c r="E1199" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1199">
+        <v>16.95</v>
+      </c>
+      <c r="G1199" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1200" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1200" s="6">
+        <v>22720</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1200">
+        <v>3</v>
+      </c>
+      <c r="E1200" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1200">
+        <v>4.95</v>
+      </c>
+      <c r="G1200" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1201" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1201" s="6">
+        <v>22457</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1201">
+        <v>6</v>
+      </c>
+      <c r="E1201" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1201">
+        <v>2.95</v>
+      </c>
+      <c r="G1201" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1202" s="5">
+        <v>540003</v>
+      </c>
+      <c r="B1202" s="6">
+        <v>22969</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1202">
+        <v>12</v>
+      </c>
+      <c r="E1202" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1202">
+        <v>1.45</v>
+      </c>
+      <c r="G1202" s="8">
+        <v>16875</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1203" s="5">
+        <v>540004</v>
+      </c>
+      <c r="B1203" s="6">
+        <v>84946</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1203">
+        <v>72</v>
+      </c>
+      <c r="E1203" s="7">
+        <v>40547.442361111112</v>
+      </c>
+      <c r="F1203">
+        <v>1.06</v>
+      </c>
+      <c r="G1203" s="8">
+        <v>13094</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1204" s="5">
+        <v>540005</v>
+      </c>
+      <c r="B1204" s="6">
+        <v>84813</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1204">
+        <v>8</v>
+      </c>
+      <c r="E1204" s="7">
+        <v>40547.443055555559</v>
+      </c>
+      <c r="F1204">
+        <v>3.95</v>
+      </c>
+      <c r="G1204" s="8">
+        <v>17315</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1205" s="5">
+        <v>540005</v>
+      </c>
+      <c r="B1205" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1205">
+        <v>24</v>
+      </c>
+      <c r="E1205" s="7">
+        <v>40547.443055555559</v>
+      </c>
+      <c r="F1205">
+        <v>0.85</v>
+      </c>
+      <c r="G1205" s="8">
+        <v>17315</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1206" s="5">
+        <v>540005</v>
+      </c>
+      <c r="B1206" s="6">
+        <v>21381</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1206">
+        <v>2</v>
+      </c>
+      <c r="E1206" s="7">
+        <v>40547.443055555559</v>
+      </c>
+      <c r="F1206">
+        <v>1.69</v>
+      </c>
+      <c r="G1206" s="8">
+        <v>17315</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1207" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1207" s="6">
+        <v>22776</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>732</v>
+      </c>
+      <c r="D1207">
+        <v>1</v>
+      </c>
+      <c r="E1207" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1207">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G1207" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1208" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1208" s="6">
+        <v>22222</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1208">
+        <v>12</v>
+      </c>
+      <c r="E1208" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1208">
+        <v>1.95</v>
+      </c>
+      <c r="G1208" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1209" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1209" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1209">
+        <v>24</v>
+      </c>
+      <c r="E1209" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1209">
+        <v>0.42</v>
+      </c>
+      <c r="G1209" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1210" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1210" s="6">
+        <v>85208</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1210">
+        <v>12</v>
+      </c>
+      <c r="E1210" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1210">
+        <v>2.1</v>
+      </c>
+      <c r="G1210" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1211" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1211" s="6">
+        <v>21109</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1211">
+        <v>24</v>
+      </c>
+      <c r="E1211" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1211">
+        <v>1.95</v>
+      </c>
+      <c r="G1211" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1212" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1212" s="6">
+        <v>21110</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1212">
+        <v>24</v>
+      </c>
+      <c r="E1212" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1212">
+        <v>1.95</v>
+      </c>
+      <c r="G1212" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1213" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1213" s="6">
+        <v>22473</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1213">
+        <v>8</v>
+      </c>
+      <c r="E1213" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1213">
+        <v>1.95</v>
+      </c>
+      <c r="G1213" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1214" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1214" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1214">
+        <v>12</v>
+      </c>
+      <c r="E1214" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1214">
+        <v>1.25</v>
+      </c>
+      <c r="G1214" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1215" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1215" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1215">
+        <v>12</v>
+      </c>
+      <c r="E1215" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1215">
+        <v>1.25</v>
+      </c>
+      <c r="G1215" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1216" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1216" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1216">
+        <v>12</v>
+      </c>
+      <c r="E1216" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1216">
+        <v>1.25</v>
+      </c>
+      <c r="G1216" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1217" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1217" s="6">
+        <v>10135</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1217">
+        <v>20</v>
+      </c>
+      <c r="E1217" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1217">
+        <v>0.42</v>
+      </c>
+      <c r="G1217" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1218" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1218" s="6">
+        <v>84819</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1218">
+        <v>16</v>
+      </c>
+      <c r="E1218" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1218">
+        <v>0.85</v>
+      </c>
+      <c r="G1218" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1219" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1219" s="6">
+        <v>84821</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1219">
+        <v>24</v>
+      </c>
+      <c r="E1219" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1219">
+        <v>0.21</v>
+      </c>
+      <c r="G1219" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1220" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1220" s="6">
+        <v>21870</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1220">
+        <v>12</v>
+      </c>
+      <c r="E1220" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1220">
+        <v>1.25</v>
+      </c>
+      <c r="G1220" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1221" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1221" s="6">
+        <v>22510</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1221">
+        <v>8</v>
+      </c>
+      <c r="E1221" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1221">
+        <v>1.25</v>
+      </c>
+      <c r="G1221" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1222" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1222" s="6">
+        <v>84820</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1222">
+        <v>8</v>
+      </c>
+      <c r="E1222" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1222">
+        <v>1.25</v>
+      </c>
+      <c r="G1222" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1223" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1223" s="6">
+        <v>84766</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1223">
+        <v>12</v>
+      </c>
+      <c r="E1223" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1223">
+        <v>1.95</v>
+      </c>
+      <c r="G1223" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1224" s="5">
+        <v>540113</v>
+      </c>
+      <c r="B1224" s="6">
+        <v>22227</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1224">
+        <v>24</v>
+      </c>
+      <c r="E1224" s="7">
+        <v>40548.382638888892</v>
+      </c>
+      <c r="F1224">
+        <v>0.65</v>
+      </c>
+      <c r="G1224" s="8">
+        <v>13126</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1225" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1225" s="6">
+        <v>22865</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1225">
+        <v>36</v>
+      </c>
+      <c r="E1225" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1225">
+        <v>2.1</v>
+      </c>
+      <c r="G1225" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1226" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1226" s="6">
+        <v>21484</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1226">
+        <v>4</v>
+      </c>
+      <c r="E1226" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1226">
+        <v>3.45</v>
+      </c>
+      <c r="G1226" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1227" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1227" s="6">
+        <v>21967</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>685</v>
+      </c>
+      <c r="D1227">
+        <v>48</v>
+      </c>
+      <c r="E1227" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1227">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G1227" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1228" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1228" s="6">
+        <v>22834</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1228">
+        <v>24</v>
+      </c>
+      <c r="E1228" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1228">
+        <v>0.85</v>
+      </c>
+      <c r="G1228" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1229" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1229" s="6">
+        <v>84077</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1229">
+        <v>96</v>
+      </c>
+      <c r="E1229" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1229">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G1229" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1230" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1230" s="6">
+        <v>21980</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1230">
+        <v>48</v>
+      </c>
+      <c r="E1230" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1230">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G1230" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1231" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1231" s="6">
+        <v>21982</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>760</v>
+      </c>
+      <c r="D1231">
+        <v>48</v>
+      </c>
+      <c r="E1231" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1231">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G1231" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1232" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1232" s="6">
+        <v>21479</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1232">
+        <v>8</v>
+      </c>
+      <c r="E1232" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1232">
+        <v>3.75</v>
+      </c>
+      <c r="G1232" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1233" s="5">
+        <v>540114</v>
+      </c>
+      <c r="B1233" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1233">
+        <v>8</v>
+      </c>
+      <c r="E1233" s="7">
+        <v>40548.405555555553</v>
+      </c>
+      <c r="F1233">
+        <v>4.25</v>
+      </c>
+      <c r="G1233" s="8">
+        <v>15498</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1234" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1234" s="6">
+        <v>22021</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>761</v>
+      </c>
+      <c r="D1234">
+        <v>6</v>
+      </c>
+      <c r="E1234" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1234">
+        <v>1.65</v>
+      </c>
+      <c r="G1234" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1235" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1235" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1235">
+        <v>6</v>
+      </c>
+      <c r="E1235" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1235">
+        <v>1.65</v>
+      </c>
+      <c r="G1235" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1236" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1236" s="6">
+        <v>84218</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1236">
+        <v>6</v>
+      </c>
+      <c r="E1236" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1236">
+        <v>1.95</v>
+      </c>
+      <c r="G1236" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1237" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1237" s="6">
+        <v>85187</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1237">
+        <v>6</v>
+      </c>
+      <c r="E1237" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1237">
+        <v>1.65</v>
+      </c>
+      <c r="G1237" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1238" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1238" s="6">
+        <v>22241</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1238">
+        <v>12</v>
+      </c>
+      <c r="E1238" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1238">
+        <v>1.25</v>
+      </c>
+      <c r="G1238" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1239" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1239" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1239">
+        <v>24</v>
+      </c>
+      <c r="E1239" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1239">
+        <v>0.65</v>
+      </c>
+      <c r="G1239" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1240" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1240" s="6">
+        <v>21108</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1240">
+        <v>9</v>
+      </c>
+      <c r="E1240" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1240">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1240" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1241" s="5">
+        <v>540115</v>
+      </c>
+      <c r="B1241" s="6">
+        <v>21107</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>768</v>
+      </c>
+      <c r="D1241">
+        <v>6</v>
+      </c>
+      <c r="E1241" s="7">
+        <v>40548.410416666666</v>
+      </c>
+      <c r="F1241">
+        <v>2.95</v>
+      </c>
+      <c r="G1241" s="8">
+        <v>15235</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1242" s="5">
+        <v>540116</v>
+      </c>
+      <c r="B1242" s="6">
+        <v>22202</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>769</v>
+      </c>
+      <c r="D1242">
+        <v>1</v>
+      </c>
+      <c r="E1242" s="7">
+        <v>40548.412499999999</v>
+      </c>
+      <c r="F1242">
+        <v>7.62</v>
+      </c>
+      <c r="G1242" s="8"/>
+      <c r="H1242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1243" s="5">
+        <v>540116</v>
+      </c>
+      <c r="B1243" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>771</v>
+      </c>
+      <c r="D1243">
+        <v>1</v>
+      </c>
+      <c r="E1243" s="7">
+        <v>40548.412499999999</v>
+      </c>
+      <c r="F1243">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G1243" s="8"/>
+      <c r="H1243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1244" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1244" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1244">
+        <v>-1</v>
+      </c>
+      <c r="E1244" s="7">
+        <v>40548.413194444445</v>
+      </c>
+      <c r="F1244">
+        <v>16888.02</v>
+      </c>
+      <c r="G1244" s="8"/>
+      <c r="H1244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1245" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1245" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1245">
+        <v>-1</v>
+      </c>
+      <c r="E1245" s="7">
+        <v>40548.414583333331</v>
+      </c>
+      <c r="F1245">
+        <v>16453.71</v>
+      </c>
+      <c r="G1245" s="8"/>
+      <c r="H1245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1246" s="5">
+        <v>540119</v>
+      </c>
+      <c r="B1246" s="6">
+        <v>22865</v>
+      </c>
+      <c r="D1246">
+        <v>-60</v>
+      </c>
+      <c r="E1246" s="7">
+        <v>40548.421527777777</v>
+      </c>
+      <c r="F1246">
+        <v>0</v>
+      </c>
+      <c r="G1246" s="8"/>
+      <c r="H1246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1247" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1247" s="6">
+        <v>22720</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1247">
+        <v>6</v>
+      </c>
+      <c r="E1247" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1247">
+        <v>4.95</v>
+      </c>
+      <c r="G1247" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1248" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1248" s="6">
+        <v>22624</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1248">
+        <v>4</v>
+      </c>
+      <c r="E1248" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1248">
+        <v>8.5</v>
+      </c>
+      <c r="G1248" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1249" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1249" s="6">
+        <v>22625</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1249">
+        <v>4</v>
+      </c>
+      <c r="E1249" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1249">
+        <v>8.5</v>
+      </c>
+      <c r="G1249" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1250" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1250" s="6">
+        <v>22726</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1250">
+        <v>8</v>
+      </c>
+      <c r="E1250" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1250">
+        <v>3.75</v>
+      </c>
+      <c r="G1250" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1251" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1251" s="6">
+        <v>22727</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1251">
+        <v>12</v>
+      </c>
+      <c r="E1251" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1251">
+        <v>3.75</v>
+      </c>
+      <c r="G1251" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1252" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1252" s="6">
+        <v>22730</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1252">
+        <v>8</v>
+      </c>
+      <c r="E1252" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1252">
+        <v>3.75</v>
+      </c>
+      <c r="G1252" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1253" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1253" s="6">
+        <v>22841</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1253">
+        <v>4</v>
+      </c>
+      <c r="E1253" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1253">
+        <v>7.95</v>
+      </c>
+      <c r="G1253" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1254" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1254" s="6">
+        <v>21485</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1254">
+        <v>12</v>
+      </c>
+      <c r="E1254" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1254">
+        <v>4.95</v>
+      </c>
+      <c r="G1254" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1255" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1255" s="6">
+        <v>21733</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1255">
+        <v>12</v>
+      </c>
+      <c r="E1255" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1255">
+        <v>2.95</v>
+      </c>
+      <c r="G1255" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1256" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1256" s="6">
+        <v>22189</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1256">
+        <v>12</v>
+      </c>
+      <c r="E1256" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1256">
+        <v>3.95</v>
+      </c>
+      <c r="G1256" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1257" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1257" s="6">
+        <v>82484</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1257">
+        <v>12</v>
+      </c>
+      <c r="E1257" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1257">
+        <v>5.55</v>
+      </c>
+      <c r="G1257" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1258" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1258" s="6">
+        <v>21484</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1258">
+        <v>8</v>
+      </c>
+      <c r="E1258" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1258">
+        <v>3.45</v>
+      </c>
+      <c r="G1258" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1259" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1259" s="6">
+        <v>21754</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1259">
+        <v>12</v>
+      </c>
+      <c r="E1259" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1259">
+        <v>5.95</v>
+      </c>
+      <c r="G1259" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1260" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1260" s="6">
+        <v>21668</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>777</v>
+      </c>
+      <c r="D1260">
+        <v>24</v>
+      </c>
+      <c r="E1260" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1260">
+        <v>1.25</v>
+      </c>
+      <c r="G1260" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1261" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1261" s="6">
+        <v>21669</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>778</v>
+      </c>
+      <c r="D1261">
+        <v>24</v>
+      </c>
+      <c r="E1261" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1261">
+        <v>1.25</v>
+      </c>
+      <c r="G1261" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1262" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1262" s="6">
+        <v>21670</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1262">
+        <v>24</v>
+      </c>
+      <c r="E1262" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1262">
+        <v>1.25</v>
+      </c>
+      <c r="G1262" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1263" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1263" s="6">
+        <v>21671</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1263">
+        <v>24</v>
+      </c>
+      <c r="E1263" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1263">
+        <v>1.25</v>
+      </c>
+      <c r="G1263" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1264" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1264" s="6">
+        <v>22804</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1264">
+        <v>18</v>
+      </c>
+      <c r="E1264" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1264">
+        <v>2.95</v>
+      </c>
+      <c r="G1264" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1265" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1265" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1265">
+        <v>32</v>
+      </c>
+      <c r="E1265" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1265">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1265" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1266" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1266" s="6">
+        <v>84879</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1266">
+        <v>64</v>
+      </c>
+      <c r="E1266" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1266">
+        <v>1.69</v>
+      </c>
+      <c r="G1266" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1267" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1267" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1267">
+        <v>36</v>
+      </c>
+      <c r="E1267" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1267">
+        <v>0.65</v>
+      </c>
+      <c r="G1267" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1268" s="5">
+        <v>540120</v>
+      </c>
+      <c r="B1268" s="6">
+        <v>22245</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1268">
+        <v>48</v>
+      </c>
+      <c r="E1268" s="7">
+        <v>40548.422222222223</v>
+      </c>
+      <c r="F1268">
+        <v>0.85</v>
+      </c>
+      <c r="G1268" s="8">
+        <v>17675</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1269" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1269" s="6">
+        <v>21632</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1269">
+        <v>12</v>
+      </c>
+      <c r="E1269" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1269">
+        <v>3.95</v>
+      </c>
+      <c r="G1269" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1270" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1270" s="6">
+        <v>22222</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1270">
+        <v>12</v>
+      </c>
+      <c r="E1270" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1270">
+        <v>1.95</v>
+      </c>
+      <c r="G1270" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1271" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1271" s="6">
+        <v>22342</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1271">
+        <v>24</v>
+      </c>
+      <c r="E1271" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1271">
+        <v>0.85</v>
+      </c>
+      <c r="G1271" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1272" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1272" s="6">
+        <v>22610</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1272">
+        <v>36</v>
+      </c>
+      <c r="E1272" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1272">
+        <v>0.21</v>
+      </c>
+      <c r="G1272" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1273" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1273" s="6">
+        <v>22834</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1273">
+        <v>24</v>
+      </c>
+      <c r="E1273" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1273">
+        <v>0.85</v>
+      </c>
+      <c r="G1273" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1274" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1274" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1274">
+        <v>12</v>
+      </c>
+      <c r="E1274" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1274">
+        <v>0.85</v>
+      </c>
+      <c r="G1274" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1275" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1275" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>789</v>
+      </c>
+      <c r="D1275">
+        <v>12</v>
+      </c>
+      <c r="E1275" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1275">
+        <v>0.85</v>
+      </c>
+      <c r="G1275" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1276" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1276" s="6">
+        <v>84792</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>790</v>
+      </c>
+      <c r="D1276">
+        <v>4</v>
+      </c>
+      <c r="E1276" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1276">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G1276" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1277" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1277" s="6">
+        <v>20704</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1277">
+        <v>24</v>
+      </c>
+      <c r="E1277" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1277">
+        <v>1.95</v>
+      </c>
+      <c r="G1277" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1278" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1278" s="6">
+        <v>20705</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>792</v>
+      </c>
+      <c r="D1278">
+        <v>24</v>
+      </c>
+      <c r="E1278" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1278">
+        <v>1.95</v>
+      </c>
+      <c r="G1278" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1279" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1279" s="6">
+        <v>22970</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>793</v>
+      </c>
+      <c r="D1279">
+        <v>6</v>
+      </c>
+      <c r="E1279" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1279">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1279" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1280" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1280" s="6">
+        <v>22971</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1280">
+        <v>6</v>
+      </c>
+      <c r="E1280" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1280">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1280" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1281" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1281" s="6">
+        <v>22245</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1281">
+        <v>12</v>
+      </c>
+      <c r="E1281" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1281">
+        <v>0.85</v>
+      </c>
+      <c r="G1281" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1282" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1282" s="6">
+        <v>22308</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1282">
+        <v>6</v>
+      </c>
+      <c r="E1282" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1282">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1282" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1283" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1283" s="6">
+        <v>22900</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1283">
+        <v>6</v>
+      </c>
+      <c r="E1283" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1283">
+        <v>2.95</v>
+      </c>
+      <c r="G1283" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1284" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1284" s="6">
+        <v>22902</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1284">
+        <v>12</v>
+      </c>
+      <c r="E1284" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1284">
+        <v>2.1</v>
+      </c>
+      <c r="G1284" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1285" s="5">
+        <v>540121</v>
+      </c>
+      <c r="B1285" s="6">
+        <v>22309</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1285">
+        <v>6</v>
+      </c>
+      <c r="E1285" s="7">
+        <v>40548.440972222219</v>
+      </c>
+      <c r="F1285">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G1285" s="8">
+        <v>16145</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1286" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1286" s="6">
+        <v>22473</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1286">
+        <v>40</v>
+      </c>
+      <c r="E1286" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1286">
+        <v>1.95</v>
+      </c>
+      <c r="G1286" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1287" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1287" s="6">
+        <v>22471</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1287">
+        <v>40</v>
+      </c>
+      <c r="E1287" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1287">
+        <v>1.95</v>
+      </c>
+      <c r="G1287" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1288" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1288" s="6">
+        <v>22403</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>798</v>
+      </c>
+      <c r="D1288">
+        <v>120</v>
+      </c>
+      <c r="E1288" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1288">
+        <v>0.42</v>
+      </c>
+      <c r="G1288" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1289" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1289" s="6">
+        <v>22510</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1289">
+        <v>40</v>
+      </c>
+      <c r="E1289" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1289">
+        <v>1.25</v>
+      </c>
+      <c r="G1289" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1290" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1290" s="6">
+        <v>22511</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1290">
+        <v>40</v>
+      </c>
+      <c r="E1290" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1290">
+        <v>1.25</v>
+      </c>
+      <c r="G1290" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1291" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1291" s="6">
+        <v>22512</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1291">
+        <v>8</v>
+      </c>
+      <c r="E1291" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1291">
+        <v>1.25</v>
+      </c>
+      <c r="G1291" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1292" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1292" s="6">
+        <v>22609</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1292">
+        <v>180</v>
+      </c>
+      <c r="E1292" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1292">
+        <v>0.21</v>
+      </c>
+      <c r="G1292" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1293" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1293" s="6">
+        <v>22638</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1293">
+        <v>32</v>
+      </c>
+      <c r="E1293" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1293">
+        <v>0.85</v>
+      </c>
+      <c r="G1293" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1294" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1294" s="6">
+        <v>22647</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1294">
+        <v>72</v>
+      </c>
+      <c r="E1294" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1294">
+        <v>0.42</v>
+      </c>
+      <c r="G1294" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1295" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1295" s="6">
+        <v>22834</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1295">
+        <v>144</v>
+      </c>
+      <c r="E1295" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1295">
+        <v>0.85</v>
+      </c>
+      <c r="G1295" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1296" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1296" s="6">
+        <v>84819</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1296">
+        <v>160</v>
+      </c>
+      <c r="E1296" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1296">
+        <v>0.85</v>
+      </c>
+      <c r="G1296" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1297" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1297" s="6">
+        <v>84817</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>803</v>
+      </c>
+      <c r="D1297">
+        <v>120</v>
+      </c>
+      <c r="E1297" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1297">
+        <v>0.42</v>
+      </c>
+      <c r="G1297" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1298" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1298" s="6">
+        <v>84818</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1298">
+        <v>24</v>
+      </c>
+      <c r="E1298" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1298">
+        <v>0.85</v>
+      </c>
+      <c r="G1298" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1299" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1299" s="6">
+        <v>84820</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1299">
+        <v>80</v>
+      </c>
+      <c r="E1299" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1299">
+        <v>1.25</v>
+      </c>
+      <c r="G1299" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1300" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1300" s="6">
+        <v>84821</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1300">
+        <v>120</v>
+      </c>
+      <c r="E1300" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1300">
+        <v>0.21</v>
+      </c>
+      <c r="G1300" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1301" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1301" s="6">
+        <v>84823</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1301">
+        <v>8</v>
+      </c>
+      <c r="E1301" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1301">
+        <v>7.95</v>
+      </c>
+      <c r="G1301" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1302" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1302" s="6">
+        <v>84826</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>806</v>
+      </c>
+      <c r="D1302">
+        <v>60</v>
+      </c>
+      <c r="E1302" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1302">
+        <v>0.21</v>
+      </c>
+      <c r="G1302" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1303" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1303" s="6">
+        <v>84827</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1303">
+        <v>60</v>
+      </c>
+      <c r="E1303" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1303">
+        <v>0.19</v>
+      </c>
+      <c r="G1303" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1304" s="5">
+        <v>540122</v>
+      </c>
+      <c r="B1304" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>809</v>
+      </c>
+      <c r="D1304">
+        <v>96</v>
+      </c>
+      <c r="E1304" s="7">
+        <v>40548.443749999999</v>
+      </c>
+      <c r="F1304">
+        <v>0.42</v>
+      </c>
+      <c r="G1304" s="8">
+        <v>13694</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1000">
